--- a/data/trans_dic/P16A10-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A10-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 0,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,0; 0,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,15; 1,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,42 +884,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,35; 2,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,06; 0,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,08; 0,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,33; 1,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,28; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,27; 1,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,22; 2,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,45; 2,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,67; 2,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,42; 1,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,25; 1,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,52; 1,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,59; 1,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,28; 1,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,3; 1,38</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,21; 4,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,22; 3,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,81; 4,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,35; 5,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,99; 5,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,52; 2,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,15; 3,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,88; 2,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,94; 4,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,05; 2,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,88; 3,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,89; 3,51</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>8,35; 14,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>6,01; 11,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>7,99; 13,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,76; 9,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>3,86; 8,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,12; 8,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,59; 4,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,13; 5,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>6,67; 10,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>5,51; 8,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,21; 8,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,86; 7,51</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>19,46; 26,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>18,06; 25,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>18,52; 25,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>15,5; 20,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>15,95; 21,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>13,87; 19,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>16,41; 22,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>10,32; 17,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>18,24; 22,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>16,58; 21,14</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>18,15; 22,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>12,56; 17,77</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,7; 6,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,51; 6,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,19; 6,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,21; 6,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,6; 6,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,11; 5,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,61; 6,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,57; 5,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,8; 5,91</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,51; 5,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,16; 6,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,05; 6,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A10-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,38%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,63</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,27%</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,7%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,12</t>
+          <t>0,19; 2,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,43</t>
+          <t>0,27; 1,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,38</t>
+          <t>0,3; 1,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,46</t>
+          <t>1,03; 4,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,41</t>
+          <t>0,86; 2,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,51</t>
+          <t>1,41; 3,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,98%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,76; 9,82</t>
+          <t>5,79; 9,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,92</t>
+          <t>3,16; 5,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,51</t>
+          <t>4,87; 7,53</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>8,22%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,46; 26,96</t>
+          <t>13,7; 21,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,06; 25,39</t>
+          <t>11,39; 19,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,52; 25,16</t>
+          <t>15,51; 24,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,5; 20,36</t>
+          <t>10,38; 15,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,95; 21,93</t>
+          <t>11,79; 19,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,87; 19,56</t>
+          <t>7,73; 14,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,41; 22,48</t>
+          <t>10,13; 17,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,32; 17,55</t>
+          <t>1,88; 8,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,24; 22,94</t>
+          <t>13,39; 18,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,58; 21,14</t>
+          <t>10,4; 15,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,15; 22,51</t>
+          <t>14,07; 19,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,56; 17,77</t>
+          <t>4,51; 11,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>24,14%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>25,29; 37,42</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23,97; 36,19</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19,42; 28,9</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 27,88</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 27,52</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18,25; 27,26</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,32; 29,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21,35; 27,34</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 29,67</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>22,03; 29,14</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21,04; 27,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21,93; 26,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,7; 6,18</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>4,51; 6,26</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>5,19; 6,84</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,21; 6,65</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 6,21</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>4,6; 6,09</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>4,11; 5,54</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>4,61; 6,28</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,57; 5,87</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 5,59</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>4,8; 5,91</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>4,51; 5,54</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>5,16; 6,32</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 6,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 5,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A10-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,39</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,19</t>
+          <t>0,0; 4,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,78</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
     </row>
@@ -864,17 +865,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,65</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,61</t>
+          <t>0,15; 1,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,42 +885,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 0,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,65</t>
+          <t>0,0; 0,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,15</t>
+          <t>0,35; 2,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,55</t>
+          <t>0,06; 0,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,89</t>
+          <t>0,08; 0,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,33</t>
+          <t>0,33; 1,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,97</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,59</t>
+          <t>0,29; 1,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,61</t>
+          <t>0,28; 1,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,11</t>
+          <t>0,19; 2,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,11</t>
+          <t>0,45; 2,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,58</t>
+          <t>0,68; 2,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,73</t>
+          <t>0,3; 1,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,52</t>
+          <t>0,27; 1,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,54</t>
+          <t>0,51; 1,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,74</t>
+          <t>0,59; 1,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,1</t>
+          <t>0,28; 1,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,4</t>
+          <t>0,31; 1,32</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,4</t>
+          <t>1,35; 4,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,89</t>
+          <t>1,16; 3,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,59</t>
+          <t>1,8; 4,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,66</t>
+          <t>1,18; 4,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,32</t>
+          <t>2,08; 5,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,46</t>
+          <t>0,53; 2,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,74</t>
+          <t>1,28; 3,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,34</t>
+          <t>0,88; 2,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,18</t>
+          <t>1,97; 4,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,64</t>
+          <t>1,05; 2,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,82</t>
+          <t>1,81; 3,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,23</t>
+          <t>1,27; 3,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,35; 14,6</t>
+          <t>8,14; 14,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,45</t>
+          <t>6,06; 11,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,99; 13,95</t>
+          <t>7,83; 13,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,79</t>
+          <t>5,52; 9,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 8,68</t>
+          <t>4,18; 9,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,43</t>
+          <t>4,19; 8,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,74</t>
+          <t>1,54; 4,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,95</t>
+          <t>3,22; 5,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,58</t>
+          <t>6,76; 10,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,9</t>
+          <t>5,68; 9,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,58</t>
+          <t>5,08; 8,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,53</t>
+          <t>4,76; 7,26</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,7; 21,85</t>
+          <t>13,65; 22,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,39; 19,33</t>
+          <t>11,21; 19,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,51; 24,48</t>
+          <t>15,5; 24,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,38; 15,67</t>
+          <t>10,46; 15,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,79; 19,1</t>
+          <t>11,78; 19,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 14,27</t>
+          <t>7,63; 14,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,13; 17,07</t>
+          <t>10,45; 17,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,67</t>
+          <t>2,16; 8,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,39; 18,92</t>
+          <t>13,67; 19,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,4; 15,48</t>
+          <t>10,22; 15,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,07; 19,51</t>
+          <t>13,82; 19,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,11</t>
+          <t>4,4; 10,87</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,29; 37,42</t>
+          <t>24,07; 36,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,97; 36,19</t>
+          <t>24,3; 36,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,42; 28,9</t>
+          <t>19,19; 28,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,96; 27,88</t>
+          <t>20,0; 27,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,76; 27,52</t>
+          <t>17,76; 26,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,25; 27,26</t>
+          <t>18,25; 26,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,32; 29,57</t>
+          <t>20,24; 29,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,35; 27,34</t>
+          <t>21,51; 27,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,95; 29,67</t>
+          <t>21,98; 29,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,03; 29,14</t>
+          <t>21,95; 29,13</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,04; 27,68</t>
+          <t>20,95; 28,25</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21,93; 26,44</t>
+          <t>21,84; 26,44</t>
         </is>
       </c>
     </row>
@@ -1704,57 +1705,57 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,7; 6,18</t>
+          <t>4,62; 6,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,51; 6,26</t>
+          <t>4,48; 6,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,19; 6,84</t>
+          <t>5,11; 6,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,21</t>
+          <t>4,1; 6,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,09</t>
+          <t>4,57; 6,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,54</t>
+          <t>4,08; 5,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,28</t>
+          <t>4,62; 6,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,07; 5,59</t>
+          <t>3,94; 5,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,8; 5,91</t>
+          <t>4,8; 5,88</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,51; 5,54</t>
+          <t>4,51; 5,55</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,16; 6,32</t>
+          <t>5,09; 6,27</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2677</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1760</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2677</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4262</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5384</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2044</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4435</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5627</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4942</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5002</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14369</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5362</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6960</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5007</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13749</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3939</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2409</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1847</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5775</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2484</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2782</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4874</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8184</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2484</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5077</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1032; 11406</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8583</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2683</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6203</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5044</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1968; 12458</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8881</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>864; 7764</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1041; 12745</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3784; 16347</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8861</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4947</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3762</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7696</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9831</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5671</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14778</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7622</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7547</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1825; 10033</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1892; 10576</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6766</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1039; 10729</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3116; 16059</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4842; 18492</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1953; 11353</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1462; 8147</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6777; 22082</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8189; 24396</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3767; 15110</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3294; 14227</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12816</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13605</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19545</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25858</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17249</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7552</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14658</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10470</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30065</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21157</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34202</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36327</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7020; 23798</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7116; 24033</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11605; 30027</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10437; 41585</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10706; 27596</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3283; 15266</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8313; 24238</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6238; 16382</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20371; 43884</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12917; 33168</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23436; 47924</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>20322; 49930</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>42847</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>36102</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>50835</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>41995</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24653</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27061</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14369</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24012</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>67500</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>63164</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>65205</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>66007</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>31472; 56433</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25941; 47576</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>37435; 66205</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>30952; 54520</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16899; 37076</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18711; 38952</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7634; 23470</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17504; 31921</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>53480; 83741</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>49680; 79101</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>49533; 83399</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>52539; 80209</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>51392</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>46387</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>66866</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>47604</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>51573</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>36955</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>50675</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>32660</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>102964</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>83342</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>117541</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>80264</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>39927; 64769</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>34501; 60521</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>51835; 81971</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>38501; 58115</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>40408; 65597</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>26941; 50309</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>39478; 67549</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>13120; 52232</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>86906; 122422</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>67508; 101795</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>98393; 138140</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>42940; 106137</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>63880</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>74548</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>61494</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>67334</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>74987</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>87133</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>98835</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>103443</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>138867</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>161682</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>160329</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>170777</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>50526; 76774</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>60718; 91342</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>49307; 73941</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>56561; 78945</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>59299; 90046</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>70780; 104654</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>80980; 118467</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>91345; 116244</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>119523; 160169</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>139963; 185770</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>137680; 185675</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>154524; 187056</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>177307</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>180488</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>203100</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>186554</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>178944</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>170460</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>190984</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>179530</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>356251</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>350949</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>394084</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>366084</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>151478; 205422</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>153180; 207758</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>173541; 230261</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>141855; 213766</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>154492; 204222</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>144719; 196865</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>163842; 219186</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>144087; 202394</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>319374; 391562</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>314112; 386473</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>353330; 434981</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>317171; 406526</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>